--- a/Sample Data Icafe.xlsx
+++ b/Sample Data Icafe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PTIT\Nhap mon cong nghe phan mem\Do an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3568308-A589-4798-AA28-EC25F7550FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F5AC1-7019-43FF-970F-D62F0842B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C414ECD0-55B6-45FF-B56B-7585B1CA577E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Category</t>
   </si>
@@ -153,10 +153,94 @@
     <t>Bột café nguyên chất</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>StaffId</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>OrderProduct</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>ProductId</t>
+  </si>
+  <si>
+    <t>SizeId</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>IsCancel</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>IngreId</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>ImportDate</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>OrderCode</t>
+  </si>
+  <si>
+    <t>A2358</t>
+  </si>
+  <si>
+    <t>18/3/2025</t>
+  </si>
+  <si>
+    <t>Table ProductVariant</t>
+  </si>
+  <si>
+    <t>ProductVariantID</t>
   </si>
 </sst>
 </file>
@@ -225,6 +309,60 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4EF696E9-36C2-4651-B309-77F983089D6E}" name="Table10" displayName="Table10" ref="L8:Q9" totalsRowShown="0">
+  <autoFilter ref="L8:Q9" xr:uid="{4EF696E9-36C2-4651-B309-77F983089D6E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2954BF06-12A7-461D-93BE-890C18EA89EE}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{4514C676-E53B-4FF7-B1EC-252B8EDA5534}" name="OrderId"/>
+    <tableColumn id="3" xr3:uid="{5E8C80DA-FDEA-4347-80EA-BEFA27A6B35E}" name="ProductVariantID"/>
+    <tableColumn id="4" xr3:uid="{B5537D67-50EC-4BE1-970F-E0983632CBC1}" name="Quantity"/>
+    <tableColumn id="5" xr3:uid="{8402D684-1838-43B9-9DA7-DE3A60B40ACF}" name="Price"/>
+    <tableColumn id="6" xr3:uid="{FE785F9A-DEE4-4DB0-9149-59BA3C1CE5E1}" name="IsCancel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6F72F738-A698-4AB8-9E36-9BEE49EB737D}" name="Table11" displayName="Table11" ref="L14:M18" totalsRowShown="0">
+  <autoFilter ref="L14:M18" xr:uid="{6F72F738-A698-4AB8-9E36-9BEE49EB737D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0B96CF5C-DB89-4BD1-B2DB-55F88B189CBD}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{C37C0BC7-8C48-4E01-BDFF-2C49A7F3C2CE}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FE81D097-C971-4E35-8FFB-6B0FE0C28584}" name="Table12" displayName="Table12" ref="F21:J22" totalsRowShown="0">
+  <autoFilter ref="F21:J22" xr:uid="{FE81D097-C971-4E35-8FFB-6B0FE0C28584}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{957D590A-9BE6-4411-A877-6EAE6AC5400B}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{60B5CE96-DA0E-4021-83BB-2E0122165071}" name="IngreId"/>
+    <tableColumn id="3" xr3:uid="{671B5380-FB33-47ED-8AC3-A78D31D83FE2}" name="UnitId"/>
+    <tableColumn id="4" xr3:uid="{131C1A2E-A7B1-4C82-9E77-EC6D4C630457}" name="TotalPrice"/>
+    <tableColumn id="5" xr3:uid="{CF7FE66D-4287-41A2-BC49-632CC0F2B9A8}" name="ImportDate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AF496F4E-896D-4698-A05C-ED19E3919715}" name="Table13" displayName="Table13" ref="F27:J28" totalsRowShown="0">
+  <autoFilter ref="F27:J28" xr:uid="{AF496F4E-896D-4698-A05C-ED19E3919715}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FDC54D58-F58F-46FC-8013-BF2DA117E167}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{8F6D00BE-3847-4E50-8B95-341898032FC5}" name="ProductId"/>
+    <tableColumn id="3" xr3:uid="{555C6218-83B2-418E-B67F-3A8679BC6406}" name="SizeId"/>
+    <tableColumn id="4" xr3:uid="{3A65DD49-B084-4677-AB11-A1F1CABD2B66}" name="TypeId"/>
+    <tableColumn id="5" xr3:uid="{9DEBDDDA-C905-4F4C-A832-8705B102534B}" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1D8DF4D-833C-48DC-9680-859259CA8F8B}" name="Table2" displayName="Table2" ref="E2:I4" totalsRowShown="0">
   <autoFilter ref="E2:I4" xr:uid="{C1D8DF4D-833C-48DC-9680-859259CA8F8B}"/>
@@ -289,8 +427,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{68F27FF9-630E-463B-8A47-30745EDD24DE}" name="Table7" displayName="Table7" ref="E14:F16" totalsRowShown="0">
   <autoFilter ref="E14:F16" xr:uid="{68F27FF9-630E-463B-8A47-30745EDD24DE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2FB59600-DAB4-46AB-9B8F-0C77C8BA0EF0}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{8FEAB730-F106-4D80-90F2-2B90AAC15C37}" name="Column2"/>
+    <tableColumn id="1" xr3:uid="{2FB59600-DAB4-46AB-9B8F-0C77C8BA0EF0}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{8FEAB730-F106-4D80-90F2-2B90AAC15C37}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -303,7 +441,21 @@
     <tableColumn id="1" xr3:uid="{56C7F0BA-F930-47AA-BEF7-21C94C60F0D4}" name="Id"/>
     <tableColumn id="2" xr3:uid="{91A4E8A6-64B8-48DD-A330-C9B5C53AE080}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D329303E-5427-4597-BCFB-C694C501B77C}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{B0BD4C91-92A1-4FDA-9B88-78B740BDE1C9}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{B0BD4C91-92A1-4FDA-9B88-78B740BDE1C9}" name="ExpiryDate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{410CE28B-3F8A-4951-8B97-0DFAACE78DD1}" name="Table8" displayName="Table8" ref="L2:P3" totalsRowShown="0">
+  <autoFilter ref="L2:P3" xr:uid="{410CE28B-3F8A-4951-8B97-0DFAACE78DD1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F2C3D691-A6F2-4922-99FF-18C98ACD26D2}" name="OrderCode"/>
+    <tableColumn id="2" xr3:uid="{5D76DBED-B27B-43C9-8805-51F2349CEB0A}" name="StaffId"/>
+    <tableColumn id="3" xr3:uid="{988A68BA-7525-415C-B7D1-D03AC8EDEEF7}" name="TotalPrice"/>
+    <tableColumn id="4" xr3:uid="{8D7BB4EC-6AF8-4933-AA84-AC7DDCA1DDE3}" name="OrderDate"/>
+    <tableColumn id="5" xr3:uid="{8A587824-D108-42F5-B8EC-DFDBBA88523F}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C1BBA0-5D1B-467D-851A-F95F05E3AC16}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,17 +773,29 @@
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -653,8 +817,23 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -676,8 +855,23 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>230000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -700,15 +894,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -725,10 +922,28 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -744,8 +959,29 @@
       <c r="G9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>365</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -753,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -761,15 +997,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -777,13 +1016,19 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -796,8 +1041,14 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -810,13 +1061,38 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -829,8 +1105,23 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -843,8 +1134,23 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>100000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -858,28 +1164,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -887,7 +1226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -897,8 +1236,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="13">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -906,6 +1245,12 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>